--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Geral.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Geral.xlsx
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.770180457870678</v>
+        <v>1.94686351230064</v>
       </c>
       <c r="C6" t="n">
-        <v>6.750750731468653</v>
+        <v>3.291354539467505</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003889305893268413</v>
+        <v>0.7569937851937422</v>
       </c>
     </row>
   </sheetData>

--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Geral.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Geral.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.974201879855123</v>
+        <v>1.955880088503596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.442277665780778</v>
+        <v>3.359480197017807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7430541532575515</v>
+        <v>0.7524606424109233</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.942103093942143</v>
+        <v>1.977707360461119</v>
       </c>
       <c r="C3" t="n">
-        <v>2.093103448275861</v>
+        <v>3.145172413793103</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7593618510503068</v>
+        <v>0.7412243088690889</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.205408036062654</v>
+        <v>1.487185414381639</v>
       </c>
       <c r="C4" t="n">
-        <v>3.731318745643458</v>
+        <v>1.709907722195245</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5998423088205515</v>
+        <v>0.9172561303656908</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.968662123782769</v>
+        <v>1.952506025388216</v>
       </c>
       <c r="C5" t="n">
-        <v>3.422145870056096</v>
+        <v>3.338063459239361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7459260727070747</v>
+        <v>0.7541643351512322</v>
       </c>
     </row>
     <row r="6">

--- a/5-2 GHz Analysis/tables/models_metrics_in_test_set_Geral.xlsx
+++ b/5-2 GHz Analysis/tables/models_metrics_in_test_set_Geral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Execution Time (ms)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Memory Usage (B)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +480,12 @@
       <c r="D2" t="n">
         <v>0.7524606424109233</v>
       </c>
+      <c r="E2" t="n">
+        <v>3.807600005529821</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +502,12 @@
       <c r="D3" t="n">
         <v>0.7412243088690889</v>
       </c>
+      <c r="E3" t="n">
+        <v>3.063299984205514</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +524,12 @@
       <c r="D4" t="n">
         <v>0.9172561303656908</v>
       </c>
+      <c r="E4" t="n">
+        <v>15.64580001286231</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +546,12 @@
       <c r="D5" t="n">
         <v>0.7541643351512322</v>
       </c>
+      <c r="E5" t="n">
+        <v>4.860599990934134</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -533,6 +567,12 @@
       </c>
       <c r="D6" t="n">
         <v>0.7569937851937422</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.350300008198246</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
